--- a/アプリ説明.xlsx
+++ b/アプリ説明.xlsx
@@ -87,13 +87,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>140876</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>65783</xdr:rowOff>
@@ -113,8 +113,497 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="133350"/>
+          <a:off x="0" y="133350"/>
           <a:ext cx="15990476" cy="7133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2" descr="Google Chrome: 高速で安全 - Google Play のアプリ"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="495300" y="8001000"/>
+          <a:ext cx="1109663" cy="1109663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>21432</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1604963" y="8553446"/>
+          <a:ext cx="2009775" cy="2386"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1824038" y="8272463"/>
+          <a:ext cx="1495425" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>http://xxxxx/login</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>80958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>90483</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3614738" y="8081958"/>
+          <a:ext cx="1619250" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>LoginController</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>@GetMapping(/login)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>147639</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1614488" y="8710613"/>
+          <a:ext cx="2000251" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1814513" y="8767763"/>
+          <a:ext cx="1495425" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>/login/login.html</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>481013</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="481013" y="9720263"/>
+          <a:ext cx="1304925" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Login</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>446195</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>113475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11515725"/>
+          <a:ext cx="11838095" cy="6600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -392,7 +881,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
